--- a/capiq_data/in_process_data/IQ90323.xlsx
+++ b/capiq_data/in_process_data/IQ90323.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48F3AB1-DC60-4FD5-BAFF-D0BE62FEC5C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D466E1C7-1620-4D72-B167-F4E6508FE48F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"01c140b1-0f43-4037-b9fb-d80b8a7f1e58"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"a0071adf-f928-47e9-92c6-80580370acc7"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,31 +853,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>55.662999999999997</v>
+        <v>-8.9309999999999992</v>
       </c>
       <c r="D2">
-        <v>268.93400000000003</v>
+        <v>24.733000000000001</v>
       </c>
       <c r="E2">
-        <v>141.98599999999999</v>
+        <v>28.45</v>
       </c>
       <c r="F2">
-        <v>219.971</v>
+        <v>13.063000000000001</v>
       </c>
       <c r="G2">
-        <v>684.53899999999999</v>
+        <v>90.015000000000001</v>
       </c>
       <c r="H2">
-        <v>1475.837</v>
+        <v>117.384</v>
       </c>
       <c r="I2">
-        <v>31.254000000000001</v>
+        <v>14.006</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -772,75 +892,75 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>327.86599999999999</v>
+        <v>37.295000000000002</v>
       </c>
       <c r="O2">
-        <v>400.738</v>
+        <v>37.295000000000002</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>-0.621</v>
+        <v>-12.231</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>2129</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1075.0989999999999</v>
+        <v>80.088999999999999</v>
       </c>
       <c r="U2">
-        <v>168.13300000000001</v>
+        <v>36.023000000000003</v>
       </c>
       <c r="V2">
-        <v>103.139</v>
+        <v>-11.664</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-6.0259999999999998</v>
+        <v>-0.106</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-91.649000000000001</v>
+        <v>5.415</v>
       </c>
       <c r="AA2">
-        <v>55.662999999999997</v>
+        <v>-8.9309999999999992</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>55.575000000000003</v>
+        <v>-8.7420000000000009</v>
       </c>
       <c r="D3">
-        <v>277.572</v>
+        <v>27.067</v>
       </c>
       <c r="E3">
-        <v>142.90299999999999</v>
+        <v>25.113</v>
       </c>
       <c r="F3">
-        <v>226.899</v>
+        <v>11.166</v>
       </c>
       <c r="G3">
-        <v>690.83900000000006</v>
+        <v>72.406000000000006</v>
       </c>
       <c r="H3">
-        <v>1538.5229999999999</v>
+        <v>100.08199999999999</v>
       </c>
       <c r="I3">
-        <v>30.827000000000002</v>
+        <v>3.9049999999999998</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -855,75 +975,75 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>342.08499999999998</v>
+        <v>27.448</v>
       </c>
       <c r="O3">
-        <v>426.22</v>
+        <v>27.448</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>38.082000000000001</v>
+        <v>0.315</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>2254</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1112.3030000000001</v>
+        <v>72.634</v>
       </c>
       <c r="U3">
-        <v>206.215</v>
+        <v>30.279</v>
       </c>
       <c r="V3">
-        <v>91.228999999999999</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-39.996000000000002</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-7.3040000000000003</v>
+        <v>5.4279999999999999</v>
       </c>
       <c r="AA3">
-        <v>55.575000000000003</v>
+        <v>-8.7420000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>62.548999999999999</v>
+        <v>-1.611</v>
       </c>
       <c r="D4">
-        <v>290.71300000000002</v>
+        <v>29.001000000000001</v>
       </c>
       <c r="E4">
-        <v>154.74100000000001</v>
+        <v>25.637</v>
       </c>
       <c r="F4">
-        <v>238.26499999999999</v>
+        <v>18.391999999999999</v>
       </c>
       <c r="G4">
-        <v>797.22799999999995</v>
+        <v>107.78700000000001</v>
       </c>
       <c r="H4">
-        <v>1597.134</v>
+        <v>134.12299999999999</v>
       </c>
       <c r="I4">
-        <v>34.07</v>
+        <v>3.722</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,75 +1058,75 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>349.017</v>
+        <v>27.027000000000001</v>
       </c>
       <c r="O4">
-        <v>431.96600000000001</v>
+        <v>27.027000000000001</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>93.588999999999999</v>
+        <v>38.698999999999998</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>2347</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1165.1679999999999</v>
+        <v>107.096</v>
       </c>
       <c r="U4">
-        <v>299.80399999999997</v>
+        <v>68.596999999999994</v>
       </c>
       <c r="V4">
-        <v>101.07599999999999</v>
+        <v>1.698</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-34.152000000000001</v>
+        <v>37.523000000000003</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>35.906999999999996</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="AA4">
-        <v>62.548999999999999</v>
+        <v>-1.611</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>67.61</v>
+        <v>-11.506</v>
       </c>
       <c r="D5">
-        <v>314.61500000000001</v>
+        <v>26.565999999999999</v>
       </c>
       <c r="E5">
-        <v>165.67599999999999</v>
+        <v>22.628</v>
       </c>
       <c r="F5">
-        <v>258.69499999999999</v>
+        <v>19.241</v>
       </c>
       <c r="G5">
-        <v>763.673</v>
+        <v>101.898</v>
       </c>
       <c r="H5">
-        <v>1568.549</v>
+        <v>124.663</v>
       </c>
       <c r="I5">
-        <v>33.524999999999999</v>
+        <v>4.46</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,75 +1141,75 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>372.30700000000002</v>
+        <v>27.007999999999999</v>
       </c>
       <c r="O5">
-        <v>463.113</v>
+        <v>28.175000000000001</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>-83.02</v>
+        <v>-26.998000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>2488</v>
+        <v>490</v>
       </c>
       <c r="T5">
-        <v>1105.4359999999999</v>
+        <v>96.488</v>
       </c>
       <c r="U5">
-        <v>216.78399999999999</v>
+        <v>18.321000000000002</v>
       </c>
       <c r="V5">
-        <v>121.494</v>
+        <v>2.153</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-146.49</v>
+        <v>-1.2809999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-40.531999999999996</v>
+        <v>-27.803000000000001</v>
       </c>
       <c r="AA5">
-        <v>67.61</v>
+        <v>-11.506</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>66.492000000000004</v>
+        <v>-2.0710000000000002</v>
       </c>
       <c r="D6">
-        <v>322.43200000000002</v>
+        <v>27.024999999999999</v>
       </c>
       <c r="E6">
-        <v>187.86199999999999</v>
+        <v>20.547999999999998</v>
       </c>
       <c r="F6">
-        <v>266.82600000000002</v>
+        <v>18.367999999999999</v>
       </c>
       <c r="G6">
-        <v>804.10199999999998</v>
+        <v>100.878</v>
       </c>
       <c r="H6">
-        <v>1698.6890000000001</v>
+        <v>124.422</v>
       </c>
       <c r="I6">
-        <v>32.566000000000003</v>
+        <v>3.6070000000000002</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,75 +1224,75 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>432.75400000000002</v>
+        <v>27.510999999999999</v>
       </c>
       <c r="O6">
-        <v>528.49900000000002</v>
+        <v>28.756</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>40.704000000000001</v>
+        <v>-4.641</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>2616</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1170.19</v>
+        <v>95.665999999999997</v>
       </c>
       <c r="U6">
-        <v>257.488</v>
+        <v>13.68</v>
       </c>
       <c r="V6">
-        <v>131.87899999999999</v>
+        <v>3.3450000000000002</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-23.497</v>
+        <v>1.2509999999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-61.511000000000003</v>
+        <v>-8.5289999999999999</v>
       </c>
       <c r="AA6">
-        <v>66.492000000000004</v>
+        <v>-2.0710000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>68.641000000000005</v>
+        <v>-1.77</v>
       </c>
       <c r="D7">
-        <v>339.62200000000001</v>
+        <v>27.100999999999999</v>
       </c>
       <c r="E7">
-        <v>184.04300000000001</v>
+        <v>20.649000000000001</v>
       </c>
       <c r="F7">
-        <v>282.02800000000002</v>
+        <v>19.27</v>
       </c>
       <c r="G7">
-        <v>746.51800000000003</v>
+        <v>103.087</v>
       </c>
       <c r="H7">
-        <v>1758.271</v>
+        <v>126.22799999999999</v>
       </c>
       <c r="I7">
-        <v>29.904</v>
+        <v>4.1970000000000001</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1187,75 +1307,75 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>433.88600000000002</v>
+        <v>28.452000000000002</v>
       </c>
       <c r="O7">
-        <v>541.053</v>
+        <v>29.824999999999999</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>-48.029000000000003</v>
+        <v>14.723000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>2805</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1217.2180000000001</v>
+        <v>96.403000000000006</v>
       </c>
       <c r="U7">
-        <v>209.459</v>
+        <v>28.402999999999999</v>
       </c>
       <c r="V7">
-        <v>101.604</v>
+        <v>1.9139999999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-45.73</v>
+        <v>2.234</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>31.297999999999998</v>
+        <v>11.468999999999999</v>
       </c>
       <c r="AA7">
-        <v>68.641000000000005</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>72.335999999999999</v>
+        <v>-4.3460000000000001</v>
       </c>
       <c r="D8">
-        <v>352.63400000000001</v>
+        <v>27.065000000000001</v>
       </c>
       <c r="E8">
-        <v>193.70500000000001</v>
+        <v>20.277999999999999</v>
       </c>
       <c r="F8">
-        <v>292.34699999999998</v>
+        <v>19.48</v>
       </c>
       <c r="G8">
-        <v>782.88699999999994</v>
+        <v>103.762</v>
       </c>
       <c r="H8">
-        <v>1838.066</v>
+        <v>125.548</v>
       </c>
       <c r="I8">
-        <v>32.006999999999998</v>
+        <v>4.4630000000000001</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,75 +1390,75 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>446.64</v>
+        <v>30.635000000000002</v>
       </c>
       <c r="O8">
-        <v>555.89800000000002</v>
+        <v>32.066000000000003</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>-13.852</v>
+        <v>-9.907</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>2903</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1282.1679999999999</v>
+        <v>93.481999999999999</v>
       </c>
       <c r="U8">
-        <v>195.607</v>
+        <v>18.495999999999999</v>
       </c>
       <c r="V8">
-        <v>113.399</v>
+        <v>2.7530000000000001</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-31.181000000000001</v>
+        <v>1.266</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-89.751000000000005</v>
+        <v>-13.326000000000001</v>
       </c>
       <c r="AA8">
-        <v>72.335999999999999</v>
+        <v>-4.3460000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>67.716999999999999</v>
+        <v>-0.42299999999999999</v>
       </c>
       <c r="D9">
-        <v>362.55900000000003</v>
+        <v>27.074999999999999</v>
       </c>
       <c r="E9">
-        <v>185.172</v>
+        <v>20.404</v>
       </c>
       <c r="F9">
-        <v>299.87799999999999</v>
+        <v>20.669</v>
       </c>
       <c r="G9">
-        <v>776.08100000000002</v>
+        <v>105.79900000000001</v>
       </c>
       <c r="H9">
-        <v>1911.201</v>
+        <v>126.289</v>
       </c>
       <c r="I9">
-        <v>27.026</v>
+        <v>3.6850000000000001</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,75 +1473,75 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>466.029</v>
+        <v>31.289000000000001</v>
       </c>
       <c r="O9">
-        <v>581.80100000000004</v>
+        <v>32.603999999999999</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.574</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>3029</v>
+        <v>467</v>
       </c>
       <c r="T9">
-        <v>1329.4</v>
+        <v>93.685000000000002</v>
       </c>
       <c r="U9">
-        <v>211.18100000000001</v>
+        <v>20.800999999999998</v>
       </c>
       <c r="V9">
-        <v>148.55500000000001</v>
+        <v>1.4930000000000001</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-48.823</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-73.843999999999994</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="AA9">
-        <v>67.716999999999999</v>
+        <v>-0.42299999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>69.492999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="D10">
-        <v>365.45100000000002</v>
+        <v>27.056000000000001</v>
       </c>
       <c r="E10">
-        <v>209.078</v>
+        <v>19.321999999999999</v>
       </c>
       <c r="F10">
-        <v>304.56599999999997</v>
+        <v>20.838000000000001</v>
       </c>
       <c r="G10">
-        <v>791.78899999999999</v>
+        <v>86.662999999999997</v>
       </c>
       <c r="H10">
-        <v>2037.652</v>
+        <v>128.91</v>
       </c>
       <c r="I10">
-        <v>32.220999999999997</v>
+        <v>4.1520000000000001</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1436,75 +1556,75 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>529.57799999999997</v>
+        <v>31.425999999999998</v>
       </c>
       <c r="O10">
-        <v>651.35299999999995</v>
+        <v>32.798000000000002</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>-26.617999999999999</v>
+        <v>-11.22</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>3127</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1386.299</v>
+        <v>96.111999999999995</v>
       </c>
       <c r="U10">
-        <v>184.56299999999999</v>
+        <v>9.5809999999999995</v>
       </c>
       <c r="V10">
-        <v>144.80600000000001</v>
+        <v>2.6869999999999998</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-37.914000000000001</v>
+        <v>1.7869999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-124.901</v>
+        <v>-14.808999999999999</v>
       </c>
       <c r="AA10">
-        <v>69.492999999999995</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>63.411999999999999</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="D11">
-        <v>350.23200000000003</v>
+        <v>28.016999999999999</v>
       </c>
       <c r="E11">
-        <v>192.79599999999999</v>
+        <v>20.55</v>
       </c>
       <c r="F11">
-        <v>289.93</v>
+        <v>21.539000000000001</v>
       </c>
       <c r="G11">
-        <v>804.42399999999998</v>
+        <v>88.832999999999998</v>
       </c>
       <c r="H11">
-        <v>2065.9090000000001</v>
+        <v>133.774</v>
       </c>
       <c r="I11">
-        <v>39.1</v>
+        <v>4.1589999999999998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1519,75 +1639,75 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>520.74400000000003</v>
+        <v>33.271999999999998</v>
       </c>
       <c r="O11">
-        <v>637.73</v>
+        <v>34.710999999999999</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>45.098999999999997</v>
+        <v>3.9390000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>3155</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1428.1790000000001</v>
+        <v>99.063000000000002</v>
       </c>
       <c r="U11">
-        <v>229.66200000000001</v>
+        <v>13.52</v>
       </c>
       <c r="V11">
-        <v>80.662000000000006</v>
+        <v>2.887</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-47.651000000000003</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>145.23500000000001</v>
+        <v>-1.0009999999999999</v>
       </c>
       <c r="AA11">
-        <v>63.411999999999999</v>
+        <v>0.81499999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>68.177999999999997</v>
+        <v>1.399</v>
       </c>
       <c r="D12">
-        <v>370.30200000000002</v>
+        <v>29.189</v>
       </c>
       <c r="E12">
-        <v>205.13800000000001</v>
+        <v>20.372</v>
       </c>
       <c r="F12">
-        <v>305.38499999999999</v>
+        <v>22.408000000000001</v>
       </c>
       <c r="G12">
-        <v>834.30899999999997</v>
+        <v>89.575999999999993</v>
       </c>
       <c r="H12">
-        <v>2147.8029999999999</v>
+        <v>139.78399999999999</v>
       </c>
       <c r="I12">
-        <v>28.690999999999999</v>
+        <v>3.8959999999999999</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,75 +1722,75 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>529.94799999999998</v>
+        <v>34.046999999999997</v>
       </c>
       <c r="O12">
-        <v>659.61699999999996</v>
+        <v>35.552999999999997</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>-31.382000000000001</v>
+        <v>5.4779999999999998</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>3184</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1488.1859999999999</v>
+        <v>104.23099999999999</v>
       </c>
       <c r="U12">
-        <v>198.28</v>
+        <v>18.998000000000001</v>
       </c>
       <c r="V12">
-        <v>126.23</v>
+        <v>3.431</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-31.373999999999999</v>
+        <v>4.5540000000000003</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-117.339</v>
+        <v>-1.7430000000000001</v>
       </c>
       <c r="AA12">
-        <v>68.177999999999997</v>
+        <v>1.399</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>76.230999999999995</v>
+        <v>1.353</v>
       </c>
       <c r="D13">
-        <v>395.32900000000001</v>
+        <v>31.632999999999999</v>
       </c>
       <c r="E13">
-        <v>204.20500000000001</v>
+        <v>19.324999999999999</v>
       </c>
       <c r="F13">
-        <v>328.38600000000002</v>
+        <v>24.204999999999998</v>
       </c>
       <c r="G13">
-        <v>816.37099999999998</v>
+        <v>69.744</v>
       </c>
       <c r="H13">
-        <v>2230.5540000000001</v>
+        <v>148.173</v>
       </c>
       <c r="I13">
-        <v>37.313000000000002</v>
+        <v>3.714</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1685,75 +1805,75 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>551.35</v>
+        <v>36.009</v>
       </c>
       <c r="O13">
-        <v>691.84199999999998</v>
+        <v>37.744</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>-8.5869999999999997</v>
+        <v>-8.6470000000000002</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>3356</v>
+        <v>507</v>
       </c>
       <c r="T13">
-        <v>1538.712</v>
+        <v>110.429</v>
       </c>
       <c r="U13">
-        <v>189.69300000000001</v>
+        <v>10.351000000000001</v>
       </c>
       <c r="V13">
-        <v>147.995</v>
+        <v>5.6050000000000004</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-49.378999999999998</v>
+        <v>4.0620000000000003</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-15.628</v>
+        <v>9.4429999999999996</v>
       </c>
       <c r="AA13">
-        <v>76.230999999999995</v>
+        <v>1.353</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>68.048000000000002</v>
+        <v>3.8010000000000002</v>
       </c>
       <c r="D14">
-        <v>406.452</v>
+        <v>36.081000000000003</v>
       </c>
       <c r="E14">
-        <v>220.78399999999999</v>
+        <v>17.495999999999999</v>
       </c>
       <c r="F14">
-        <v>333.56900000000002</v>
+        <v>27.77</v>
       </c>
       <c r="G14">
-        <v>870.94299999999998</v>
+        <v>161.13</v>
       </c>
       <c r="H14">
-        <v>2214.8389999999999</v>
+        <v>272.29599999999999</v>
       </c>
       <c r="I14">
-        <v>38.151000000000003</v>
+        <v>2.67</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1768,75 +1888,75 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>613.971</v>
+        <v>37.792999999999999</v>
       </c>
       <c r="O14">
-        <v>760.76900000000001</v>
+        <v>39.764000000000003</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>41.634999999999998</v>
+        <v>17.361000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>3520</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1454.07</v>
+        <v>232.53200000000001</v>
       </c>
       <c r="U14">
-        <v>231.328</v>
+        <v>27.712</v>
       </c>
       <c r="V14">
-        <v>158.92599999999999</v>
+        <v>8.4280000000000008</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-186.63</v>
+        <v>118.077</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>75.152000000000001</v>
+        <v>-108.652</v>
       </c>
       <c r="AA14">
-        <v>68.048000000000002</v>
+        <v>3.8010000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>69.641000000000005</v>
+        <v>5.9550000000000001</v>
       </c>
       <c r="D15">
-        <v>420.04300000000001</v>
+        <v>40.646999999999998</v>
       </c>
       <c r="E15">
-        <v>223.47200000000001</v>
+        <v>19.158000000000001</v>
       </c>
       <c r="F15">
-        <v>344.38099999999997</v>
+        <v>31.222000000000001</v>
       </c>
       <c r="G15">
-        <v>950.41899999999998</v>
+        <v>157.15600000000001</v>
       </c>
       <c r="H15">
-        <v>2166.1999999999998</v>
+        <v>297.976</v>
       </c>
       <c r="I15">
-        <v>40.371000000000002</v>
+        <v>5.3970000000000002</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1851,75 +1971,75 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>597.84299999999996</v>
+        <v>43.576999999999998</v>
       </c>
       <c r="O15">
-        <v>751.26099999999997</v>
+        <v>45.774999999999999</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8.5079999999999991</v>
+        <v>-5.55</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>3636</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1414.9390000000001</v>
+        <v>252.20099999999999</v>
       </c>
       <c r="U15">
-        <v>239.83600000000001</v>
+        <v>22.161999999999999</v>
       </c>
       <c r="V15">
-        <v>81.966999999999999</v>
+        <v>10.196999999999999</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-144.64500000000001</v>
+        <v>13.326000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>75.745999999999995</v>
+        <v>-27.526</v>
       </c>
       <c r="AA15">
-        <v>69.641000000000005</v>
+        <v>5.9550000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>79.472999999999999</v>
+        <v>7.4160000000000004</v>
       </c>
       <c r="D16">
-        <v>440.28500000000003</v>
+        <v>44.243000000000002</v>
       </c>
       <c r="E16">
-        <v>243.072</v>
+        <v>19.789000000000001</v>
       </c>
       <c r="F16">
-        <v>360.82299999999998</v>
+        <v>34.143999999999998</v>
       </c>
       <c r="G16">
-        <v>945.12300000000005</v>
+        <v>138.58699999999999</v>
       </c>
       <c r="H16">
-        <v>2175.4850000000001</v>
+        <v>312.911</v>
       </c>
       <c r="I16">
-        <v>36.399000000000001</v>
+        <v>6.3479999999999999</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1934,75 +2054,75 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>611.22</v>
+        <v>48.776000000000003</v>
       </c>
       <c r="O16">
-        <v>774.77099999999996</v>
+        <v>51.192999999999998</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2.137</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>3743</v>
+        <v>582</v>
       </c>
       <c r="T16">
-        <v>1400.7139999999999</v>
+        <v>261.71800000000002</v>
       </c>
       <c r="U16">
-        <v>241.97300000000001</v>
+        <v>22.164999999999999</v>
       </c>
       <c r="V16">
-        <v>138.23400000000001</v>
+        <v>10.586</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-125.86499999999999</v>
+        <v>3.839</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>44.497</v>
+        <v>15.212999999999999</v>
       </c>
       <c r="AA16">
-        <v>79.472999999999999</v>
+        <v>7.4160000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>94.021000000000001</v>
+        <v>15.781000000000001</v>
       </c>
       <c r="D17">
-        <v>465.26600000000002</v>
+        <v>50.219000000000001</v>
       </c>
       <c r="E17">
-        <v>242.24199999999999</v>
+        <v>22.664999999999999</v>
       </c>
       <c r="F17">
-        <v>383.31400000000002</v>
+        <v>38.674999999999997</v>
       </c>
       <c r="G17">
-        <v>998.84799999999996</v>
+        <v>173.572</v>
       </c>
       <c r="H17">
-        <v>2184.9499999999998</v>
+        <v>360.35300000000001</v>
       </c>
       <c r="I17">
-        <v>43.771999999999998</v>
+        <v>4.84</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2017,75 +2137,75 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>636.98099999999999</v>
+        <v>46.48</v>
       </c>
       <c r="O17">
-        <v>815.64</v>
+        <v>52.707999999999998</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>39.529000000000003</v>
+        <v>2.7360000000000002</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>3834</v>
+        <v>613</v>
       </c>
       <c r="T17">
-        <v>1369.31</v>
+        <v>307.64499999999998</v>
       </c>
       <c r="U17">
-        <v>281.50200000000001</v>
+        <v>24.901</v>
       </c>
       <c r="V17">
-        <v>169.86500000000001</v>
+        <v>11.379</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-147.82</v>
+        <v>3.226</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>27.344000000000001</v>
+        <v>-8.6039999999999992</v>
       </c>
       <c r="AA17">
-        <v>94.021000000000001</v>
+        <v>15.781000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>89.075999999999993</v>
+        <v>8.3379999999999992</v>
       </c>
       <c r="D18">
-        <v>462.79300000000001</v>
+        <v>60.009</v>
       </c>
       <c r="E18">
-        <v>255.864</v>
+        <v>28.100999999999999</v>
       </c>
       <c r="F18">
-        <v>383.44499999999999</v>
+        <v>46.084000000000003</v>
       </c>
       <c r="G18">
-        <v>1026.857</v>
+        <v>206.655</v>
       </c>
       <c r="H18">
-        <v>2236.424</v>
+        <v>407.48899999999998</v>
       </c>
       <c r="I18">
-        <v>41.222999999999999</v>
+        <v>7.7460000000000004</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2100,75 +2220,75 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>695.62400000000002</v>
+        <v>53.329000000000001</v>
       </c>
       <c r="O18">
-        <v>880.64700000000005</v>
+        <v>55.627000000000002</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>-12.548</v>
+        <v>-1.0980000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>3942</v>
+        <v>649</v>
       </c>
       <c r="T18">
-        <v>1355.777</v>
+        <v>351.86200000000002</v>
       </c>
       <c r="U18">
-        <v>268.95400000000001</v>
+        <v>23.803000000000001</v>
       </c>
       <c r="V18">
-        <v>186.39500000000001</v>
+        <v>13.509</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-130.76900000000001</v>
+        <v>21.331</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-54.261000000000003</v>
+        <v>-33.667000000000002</v>
       </c>
       <c r="AA18">
-        <v>89.075999999999993</v>
+        <v>8.3379999999999992</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>85.728999999999999</v>
+        <v>10.964</v>
       </c>
       <c r="D19">
-        <v>472.14299999999997</v>
+        <v>67.73</v>
       </c>
       <c r="E19">
-        <v>262.62400000000002</v>
+        <v>34.822000000000003</v>
       </c>
       <c r="F19">
-        <v>389.54700000000003</v>
+        <v>51.993000000000002</v>
       </c>
       <c r="G19">
-        <v>1052.124</v>
+        <v>247.37799999999999</v>
       </c>
       <c r="H19">
-        <v>2221.279</v>
+        <v>457.87</v>
       </c>
       <c r="I19">
-        <v>34.683</v>
+        <v>7.2069999999999999</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2183,75 +2303,75 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>697.726</v>
+        <v>57.582000000000001</v>
       </c>
       <c r="O19">
-        <v>899.88300000000004</v>
+        <v>59.918999999999997</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>98.650999999999996</v>
+        <v>-2.0110000000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>4033</v>
+        <v>710</v>
       </c>
       <c r="T19">
-        <v>1321.396</v>
+        <v>397.95100000000002</v>
       </c>
       <c r="U19">
-        <v>367.60500000000002</v>
+        <v>21.792000000000002</v>
       </c>
       <c r="V19">
-        <v>142.29599999999999</v>
+        <v>17.559000000000001</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-155.25299999999999</v>
+        <v>23.794</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>130.42599999999999</v>
+        <v>-41.871000000000002</v>
       </c>
       <c r="AA19">
-        <v>85.728999999999999</v>
+        <v>10.964</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>93.171999999999997</v>
+        <v>12.693</v>
       </c>
       <c r="D20">
-        <v>483.58600000000001</v>
+        <v>73.063999999999993</v>
       </c>
       <c r="E20">
-        <v>261.06799999999998</v>
+        <v>37.749000000000002</v>
       </c>
       <c r="F20">
-        <v>397.92700000000002</v>
+        <v>56</v>
       </c>
       <c r="G20">
-        <v>1185.508</v>
+        <v>263.53100000000001</v>
       </c>
       <c r="H20">
-        <v>2262.3510000000001</v>
+        <v>505.44600000000003</v>
       </c>
       <c r="I20">
-        <v>48.985999999999997</v>
+        <v>6.2009999999999996</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2266,75 +2386,75 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>717.447</v>
+        <v>62.396000000000001</v>
       </c>
       <c r="O20">
-        <v>935.24900000000002</v>
+        <v>65.096999999999994</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>194.57499999999999</v>
+        <v>-10.205</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>4108</v>
+        <v>733</v>
       </c>
       <c r="T20">
-        <v>1327.1020000000001</v>
+        <v>440.34899999999999</v>
       </c>
       <c r="U20">
-        <v>562.17999999999995</v>
+        <v>11.587</v>
       </c>
       <c r="V20">
-        <v>172.50700000000001</v>
+        <v>21.183</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-123.804</v>
+        <v>19.48</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>166.453</v>
+        <v>-45.335000000000001</v>
       </c>
       <c r="AA20">
-        <v>93.171999999999997</v>
+        <v>12.693</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>97.037000000000006</v>
+        <v>14.907</v>
       </c>
       <c r="D21">
-        <v>501.30099999999999</v>
+        <v>80.606999999999999</v>
       </c>
       <c r="E21">
-        <v>279.43400000000003</v>
+        <v>41.703000000000003</v>
       </c>
       <c r="F21">
-        <v>416.64299999999997</v>
+        <v>62.149000000000001</v>
       </c>
       <c r="G21">
-        <v>1188.1400000000001</v>
+        <v>294.66399999999999</v>
       </c>
       <c r="H21">
-        <v>2312.29</v>
+        <v>537.73900000000003</v>
       </c>
       <c r="I21">
-        <v>50.814</v>
+        <v>7.6680000000000001</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2349,75 +2469,75 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>755.12300000000005</v>
+        <v>67.608000000000004</v>
       </c>
       <c r="O21">
-        <v>995.56200000000001</v>
+        <v>77.572000000000003</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>-171.72</v>
+        <v>40.28</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>4178</v>
+        <v>792</v>
       </c>
       <c r="T21">
-        <v>1316.7280000000001</v>
+        <v>460.16699999999997</v>
       </c>
       <c r="U21">
-        <v>390.46</v>
+        <v>51.866999999999997</v>
       </c>
       <c r="V21">
-        <v>183.34299999999999</v>
+        <v>32.735999999999997</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-147.07599999999999</v>
+        <v>4.2619999999999996</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-185.874</v>
+        <v>3.6909999999999998</v>
       </c>
       <c r="AA21">
-        <v>97.037000000000006</v>
+        <v>14.907</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>89.715999999999994</v>
+        <v>15.221</v>
       </c>
       <c r="D22">
-        <v>489.48599999999999</v>
+        <v>88.087000000000003</v>
       </c>
       <c r="E22">
-        <v>279.15800000000002</v>
+        <v>49.203000000000003</v>
       </c>
       <c r="F22">
-        <v>403.803</v>
+        <v>68.52</v>
       </c>
       <c r="G22">
-        <v>1208.133</v>
+        <v>325.03500000000003</v>
       </c>
       <c r="H22">
-        <v>2316.0810000000001</v>
+        <v>589.01700000000005</v>
       </c>
       <c r="I22">
-        <v>37.555999999999997</v>
+        <v>12.965</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2432,75 +2552,75 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>802.58299999999997</v>
+        <v>78.03</v>
       </c>
       <c r="O22">
-        <v>1053.5530000000001</v>
+        <v>88.436000000000007</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>42.837000000000003</v>
+        <v>-33.137</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>4273</v>
+        <v>891</v>
       </c>
       <c r="T22">
-        <v>1262.528</v>
+        <v>500.58100000000002</v>
       </c>
       <c r="U22">
-        <v>433.29700000000003</v>
+        <v>18.73</v>
       </c>
       <c r="V22">
-        <v>203.87100000000001</v>
+        <v>34.472999999999999</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-180.36699999999999</v>
+        <v>19.949000000000002</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>35.988</v>
+        <v>-40.942</v>
       </c>
       <c r="AA22">
-        <v>89.715999999999994</v>
+        <v>15.221</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>75.415000000000006</v>
+        <v>16.067</v>
       </c>
       <c r="D23">
-        <v>483.67700000000002</v>
+        <v>94.116</v>
       </c>
       <c r="E23">
-        <v>266.185</v>
+        <v>51.953000000000003</v>
       </c>
       <c r="F23">
-        <v>401.447</v>
+        <v>72.828999999999994</v>
       </c>
       <c r="G23">
-        <v>1193.981</v>
+        <v>415.43099999999998</v>
       </c>
       <c r="H23">
-        <v>2242.14</v>
+        <v>636.98699999999997</v>
       </c>
       <c r="I23">
-        <v>37.243000000000002</v>
+        <v>14.605</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2515,75 +2635,75 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>800.43499999999995</v>
+        <v>86.186000000000007</v>
       </c>
       <c r="O23">
-        <v>1061.146</v>
+        <v>97.415999999999997</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>-34.972000000000001</v>
+        <v>4.2729999999999997</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>4323</v>
+        <v>973</v>
       </c>
       <c r="T23">
-        <v>1180.9939999999999</v>
+        <v>539.57100000000003</v>
       </c>
       <c r="U23">
-        <v>398.32499999999999</v>
+        <v>23.003</v>
       </c>
       <c r="V23">
-        <v>133.11799999999999</v>
+        <v>35.618000000000002</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-199.738</v>
+        <v>17.128</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>45.994</v>
+        <v>-43.28</v>
       </c>
       <c r="AA23">
-        <v>75.415000000000006</v>
+        <v>16.067</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>91.789000000000001</v>
+        <v>16.965</v>
       </c>
       <c r="D24">
-        <v>496.52199999999999</v>
+        <v>100.129</v>
       </c>
       <c r="E24">
-        <v>263.24900000000002</v>
+        <v>56.683</v>
       </c>
       <c r="F24">
-        <v>412.17899999999997</v>
+        <v>77.611000000000004</v>
       </c>
       <c r="G24">
-        <v>1207.963</v>
+        <v>454.49599999999998</v>
       </c>
       <c r="H24">
-        <v>2253.7829999999999</v>
+        <v>674.33399999999995</v>
       </c>
       <c r="I24">
-        <v>37.451999999999998</v>
+        <v>17.64</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2598,75 +2718,75 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>799.41</v>
+        <v>94.543000000000006</v>
       </c>
       <c r="O24">
-        <v>1066.7180000000001</v>
+        <v>107.045</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31.271999999999998</v>
+        <v>-1.84</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>4326</v>
+        <v>1014</v>
       </c>
       <c r="T24">
-        <v>1187.0650000000001</v>
+        <v>567.28899999999999</v>
       </c>
       <c r="U24">
-        <v>429.59699999999998</v>
+        <v>21.163</v>
       </c>
       <c r="V24">
-        <v>170.476</v>
+        <v>37.279000000000003</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-123.55200000000001</v>
+        <v>5.4660000000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0.53300000000000003</v>
+        <v>-34.99</v>
       </c>
       <c r="AA24">
-        <v>91.789000000000001</v>
+        <v>16.965</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>108.935</v>
+        <v>17.751999999999999</v>
       </c>
       <c r="D25">
-        <v>525.34900000000005</v>
+        <v>111.717</v>
       </c>
       <c r="E25">
-        <v>268.17500000000001</v>
+        <v>62.75</v>
       </c>
       <c r="F25">
-        <v>440.4</v>
+        <v>86.936000000000007</v>
       </c>
       <c r="G25">
-        <v>1288.8009999999999</v>
+        <v>462.97500000000002</v>
       </c>
       <c r="H25">
-        <v>2306.3229999999999</v>
+        <v>729.51099999999997</v>
       </c>
       <c r="I25">
-        <v>34.116999999999997</v>
+        <v>13.173999999999999</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2681,75 +2801,75 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>844.23800000000006</v>
+        <v>99.637</v>
       </c>
       <c r="O25">
-        <v>1121.0609999999999</v>
+        <v>113.053</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>84.974000000000004</v>
+        <v>16.582999999999998</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>4395</v>
+        <v>1068</v>
       </c>
       <c r="T25">
-        <v>1185.2619999999999</v>
+        <v>616.45799999999997</v>
       </c>
       <c r="U25">
-        <v>514.57100000000003</v>
+        <v>37.746000000000002</v>
       </c>
       <c r="V25">
-        <v>204.07</v>
+        <v>18.007999999999999</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-148.99</v>
+        <v>22.602</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>48.445999999999998</v>
+        <v>-20.97</v>
       </c>
       <c r="AA25">
-        <v>108.935</v>
+        <v>17.751999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>94.218000000000004</v>
+        <v>22.353000000000002</v>
       </c>
       <c r="D26">
-        <v>515.95799999999997</v>
+        <v>120.03</v>
       </c>
       <c r="E26">
-        <v>313.21100000000001</v>
+        <v>67.245999999999995</v>
       </c>
       <c r="F26">
-        <v>430.69600000000003</v>
+        <v>93.506</v>
       </c>
       <c r="G26">
-        <v>1427.4960000000001</v>
+        <v>507.40800000000002</v>
       </c>
       <c r="H26">
-        <v>2397.0949999999998</v>
+        <v>787.57</v>
       </c>
       <c r="I26">
-        <v>49.924999999999997</v>
+        <v>12.879</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2764,75 +2884,75 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>918.68299999999999</v>
+        <v>115.129</v>
       </c>
       <c r="O26">
-        <v>1202.1020000000001</v>
+        <v>131.02600000000001</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>58.363</v>
+        <v>-6.6609999999999996</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>4463</v>
+        <v>1155</v>
       </c>
       <c r="T26">
-        <v>1194.9929999999999</v>
+        <v>656.54399999999998</v>
       </c>
       <c r="U26">
-        <v>572.93399999999997</v>
+        <v>31.085000000000001</v>
       </c>
       <c r="V26">
-        <v>189.31200000000001</v>
+        <v>46.838000000000001</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-128.245</v>
+        <v>8.7460000000000004</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>17.972000000000001</v>
+        <v>-59.603999999999999</v>
       </c>
       <c r="AA26">
-        <v>94.218000000000004</v>
+        <v>22.353000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>93.138000000000005</v>
+        <v>19.956</v>
       </c>
       <c r="D27">
-        <v>518.24800000000005</v>
+        <v>127.605</v>
       </c>
       <c r="E27">
-        <v>293.87200000000001</v>
+        <v>73.141999999999996</v>
       </c>
       <c r="F27">
-        <v>430.33600000000001</v>
+        <v>98.79</v>
       </c>
       <c r="G27">
-        <v>1444.8430000000001</v>
+        <v>538.54200000000003</v>
       </c>
       <c r="H27">
-        <v>2387.9169999999999</v>
+        <v>836.1</v>
       </c>
       <c r="I27">
-        <v>47.289000000000001</v>
+        <v>23.012</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2847,75 +2967,75 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>916.01800000000003</v>
+        <v>123.286</v>
       </c>
       <c r="O27">
-        <v>1203.3119999999999</v>
+        <v>139.57900000000001</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>82.838999999999999</v>
+        <v>15.749000000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>4419</v>
+        <v>1281</v>
       </c>
       <c r="T27">
-        <v>1184.605</v>
+        <v>696.52099999999996</v>
       </c>
       <c r="U27">
-        <v>655.77300000000002</v>
+        <v>46.834000000000003</v>
       </c>
       <c r="V27">
-        <v>175.34</v>
+        <v>36.951000000000001</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-147.69</v>
+        <v>8.5090000000000003</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>64.188999999999993</v>
+        <v>-24.606999999999999</v>
       </c>
       <c r="AA27">
-        <v>93.138000000000005</v>
+        <v>19.956</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>97.662000000000006</v>
+        <v>21.809000000000001</v>
       </c>
       <c r="D28">
-        <v>517.83699999999999</v>
+        <v>132.42500000000001</v>
       </c>
       <c r="E28">
-        <v>295.08499999999998</v>
+        <v>77.692999999999998</v>
       </c>
       <c r="F28">
-        <v>428.06700000000001</v>
+        <v>102.788</v>
       </c>
       <c r="G28">
-        <v>1445.9010000000001</v>
+        <v>505.04</v>
       </c>
       <c r="H28">
-        <v>2418.5720000000001</v>
+        <v>886.81</v>
       </c>
       <c r="I28">
-        <v>44.543999999999997</v>
+        <v>23.225000000000001</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2930,75 +3050,75 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>909.34100000000001</v>
+        <v>126.658</v>
       </c>
       <c r="O28">
-        <v>1213.9649999999999</v>
+        <v>144.97</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>35.139000000000003</v>
+        <v>1.206</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>4420</v>
+        <v>1357</v>
       </c>
       <c r="T28">
-        <v>1204.607</v>
+        <v>741.84</v>
       </c>
       <c r="U28">
-        <v>690.91200000000003</v>
+        <v>48.04</v>
       </c>
       <c r="V28">
-        <v>162.56399999999999</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-120.7</v>
+        <v>13.315</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.188</v>
+        <v>-45.828000000000003</v>
       </c>
       <c r="AA28">
-        <v>97.662000000000006</v>
+        <v>21.809000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>135.74299999999999</v>
+        <v>12.882</v>
       </c>
       <c r="D29">
-        <v>537.99800000000005</v>
+        <v>145.607</v>
       </c>
       <c r="E29">
-        <v>291.92399999999998</v>
+        <v>91.774000000000001</v>
       </c>
       <c r="F29">
-        <v>447.45699999999999</v>
+        <v>112.259</v>
       </c>
       <c r="G29">
-        <v>1406.2239999999999</v>
+        <v>386.65</v>
       </c>
       <c r="H29">
-        <v>2476.489</v>
+        <v>944.28800000000001</v>
       </c>
       <c r="I29">
-        <v>50.76</v>
+        <v>25.524999999999999</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3013,75 +3133,75 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>934.54300000000001</v>
+        <v>153.41</v>
       </c>
       <c r="O29">
-        <v>1247.097</v>
+        <v>173.71100000000001</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>-17.684000000000001</v>
+        <v>6.2560000000000002</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>4366</v>
+        <v>1582</v>
       </c>
       <c r="T29">
-        <v>1229.3920000000001</v>
+        <v>770.577</v>
       </c>
       <c r="U29">
-        <v>673.22799999999995</v>
+        <v>54.295999999999999</v>
       </c>
       <c r="V29">
-        <v>213.065</v>
+        <v>47.661000000000001</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-149.39699999999999</v>
+        <v>4.9160000000000004</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-71.88</v>
+        <v>165.505</v>
       </c>
       <c r="AA29">
-        <v>135.74299999999999</v>
+        <v>12.882</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>88.429000000000002</v>
+        <v>17.751000000000001</v>
       </c>
       <c r="D30">
-        <v>523.19100000000003</v>
+        <v>154.184</v>
       </c>
       <c r="E30">
-        <v>291.09300000000002</v>
+        <v>98.763999999999996</v>
       </c>
       <c r="F30">
-        <v>435.80399999999997</v>
+        <v>118.94499999999999</v>
       </c>
       <c r="G30">
-        <v>1380.817</v>
+        <v>484.28</v>
       </c>
       <c r="H30">
-        <v>2493.739</v>
+        <v>992.41099999999994</v>
       </c>
       <c r="I30">
-        <v>46.747999999999998</v>
+        <v>24.972999999999999</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3096,75 +3216,75 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>945.27599999999995</v>
+        <v>155.99600000000001</v>
       </c>
       <c r="O30">
-        <v>1266.5609999999999</v>
+        <v>182.374</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>-61.210999999999999</v>
+        <v>15.228</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>4276</v>
+        <v>1627</v>
       </c>
       <c r="T30">
-        <v>1227.1780000000001</v>
+        <v>810.03700000000003</v>
       </c>
       <c r="U30">
-        <v>611.99599999999998</v>
+        <v>69.524000000000001</v>
       </c>
       <c r="V30">
-        <v>189.95699999999999</v>
+        <v>41.994</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-130.11000000000001</v>
+        <v>6.8410000000000002</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-115.613</v>
+        <v>-27.268000000000001</v>
       </c>
       <c r="AA30">
-        <v>88.429000000000002</v>
+        <v>17.751000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>109.636</v>
+        <v>17.745000000000001</v>
       </c>
       <c r="D31">
-        <v>533.30399999999997</v>
+        <v>159.14099999999999</v>
       </c>
       <c r="E31">
-        <v>290.91899999999998</v>
+        <v>101.797</v>
       </c>
       <c r="F31">
-        <v>443.65899999999999</v>
+        <v>122.453</v>
       </c>
       <c r="G31">
-        <v>1407.229</v>
+        <v>476.56400000000002</v>
       </c>
       <c r="H31">
-        <v>2517.1460000000002</v>
+        <v>937.97900000000004</v>
       </c>
       <c r="I31">
-        <v>40.271000000000001</v>
+        <v>22.535</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3179,75 +3299,75 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>962.17100000000005</v>
+        <v>161.238</v>
       </c>
       <c r="O31">
-        <v>1290.5319999999999</v>
+        <v>193.39599999999999</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>-16.081</v>
+        <v>73.231999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>4289</v>
+        <v>1475</v>
       </c>
       <c r="T31">
-        <v>1226.614</v>
+        <v>744.58299999999997</v>
       </c>
       <c r="U31">
-        <v>595.91700000000003</v>
+        <v>142.756</v>
       </c>
       <c r="V31">
-        <v>184.755</v>
+        <v>36.948999999999998</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-150.01900000000001</v>
+        <v>-96.713999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-41.591999999999999</v>
+        <v>139.126</v>
       </c>
       <c r="AA31">
-        <v>109.636</v>
+        <v>17.745000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>122.74299999999999</v>
+        <v>19.134</v>
       </c>
       <c r="D32">
-        <v>542.20299999999997</v>
+        <v>165.58500000000001</v>
       </c>
       <c r="E32">
-        <v>297.375</v>
+        <v>98.063999999999993</v>
       </c>
       <c r="F32">
-        <v>451.19400000000002</v>
+        <v>127.407</v>
       </c>
       <c r="G32">
-        <v>1469.05</v>
+        <v>408.05900000000003</v>
       </c>
       <c r="H32">
-        <v>2561.0659999999998</v>
+        <v>934.47299999999996</v>
       </c>
       <c r="I32">
-        <v>44.646999999999998</v>
+        <v>13.159000000000001</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3262,75 +3382,75 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>943.92499999999995</v>
+        <v>169.245</v>
       </c>
       <c r="O32">
-        <v>1295.0909999999999</v>
+        <v>201.97900000000001</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>3.29</v>
+        <v>-33.572000000000003</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>4378</v>
+        <v>1478</v>
       </c>
       <c r="T32">
-        <v>1265.9749999999999</v>
+        <v>732.49400000000003</v>
       </c>
       <c r="U32">
-        <v>599.26800000000003</v>
+        <v>109.184</v>
       </c>
       <c r="V32">
-        <v>182.05099999999999</v>
+        <v>55.804000000000002</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-121.117</v>
+        <v>-43.716000000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-35.652000000000001</v>
+        <v>-32.883000000000003</v>
       </c>
       <c r="AA32">
-        <v>122.74299999999999</v>
+        <v>19.134</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>132.881</v>
+        <v>19.701000000000001</v>
       </c>
       <c r="D33">
-        <v>562.70899999999995</v>
+        <v>171.26300000000001</v>
       </c>
       <c r="E33">
-        <v>295.35199999999998</v>
+        <v>97.057000000000002</v>
       </c>
       <c r="F33">
-        <v>469.26900000000001</v>
+        <v>132.35</v>
       </c>
       <c r="G33">
-        <v>1417.6579999999999</v>
+        <v>323.36900000000003</v>
       </c>
       <c r="H33">
-        <v>2605.4760000000001</v>
+        <v>939.22299999999996</v>
       </c>
       <c r="I33">
-        <v>57.756999999999998</v>
+        <v>13.092000000000001</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3345,75 +3465,75 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>954.43299999999999</v>
+        <v>186.821</v>
       </c>
       <c r="O33">
-        <v>1319.9839999999999</v>
+        <v>220.964</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>-174.55600000000001</v>
+        <v>-30.881</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>4409</v>
+        <v>1694</v>
       </c>
       <c r="T33">
-        <v>1285.492</v>
+        <v>718.25900000000001</v>
       </c>
       <c r="U33">
-        <v>424.70699999999999</v>
+        <v>78.302999999999997</v>
       </c>
       <c r="V33">
-        <v>204.30500000000001</v>
+        <v>58.945</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-150.017</v>
+        <v>-48.13</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-210.70099999999999</v>
+        <v>-37.563000000000002</v>
       </c>
       <c r="AA33">
-        <v>132.881</v>
+        <v>19.701000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>130.905</v>
+        <v>21.422999999999998</v>
       </c>
       <c r="D34">
-        <v>543.77</v>
+        <v>165.56899999999999</v>
       </c>
       <c r="E34">
-        <v>325.68799999999999</v>
+        <v>100.47199999999999</v>
       </c>
       <c r="F34">
-        <v>457.05599999999998</v>
+        <v>129.54599999999999</v>
       </c>
       <c r="G34">
-        <v>1619.636</v>
+        <v>423.19900000000001</v>
       </c>
       <c r="H34">
-        <v>2891.8960000000002</v>
+        <v>986.41800000000001</v>
       </c>
       <c r="I34">
-        <v>66.858999999999995</v>
+        <v>24.094999999999999</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3428,75 +3548,75 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1047.69</v>
+        <v>208.17500000000001</v>
       </c>
       <c r="O34">
-        <v>1482.7080000000001</v>
+        <v>245.809</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>55.378999999999998</v>
+        <v>44.003999999999998</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>4484</v>
+        <v>1709</v>
       </c>
       <c r="T34">
-        <v>1409.1880000000001</v>
+        <v>740.60900000000004</v>
       </c>
       <c r="U34">
-        <v>480.12099999999998</v>
+        <v>122.307</v>
       </c>
       <c r="V34">
-        <v>197.858</v>
+        <v>57.917999999999999</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-82.132000000000005</v>
+        <v>-16.86</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-39.347000000000001</v>
+        <v>7.0570000000000004</v>
       </c>
       <c r="AA34">
-        <v>130.905</v>
+        <v>21.422999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>116.087</v>
+        <v>18.986000000000001</v>
       </c>
       <c r="D35">
-        <v>544.89499999999998</v>
+        <v>154.149</v>
       </c>
       <c r="E35">
-        <v>321.48399999999998</v>
+        <v>90.066999999999993</v>
       </c>
       <c r="F35">
-        <v>456.71699999999998</v>
+        <v>117.56699999999999</v>
       </c>
       <c r="G35">
-        <v>1807.46</v>
+        <v>396.423</v>
       </c>
       <c r="H35">
-        <v>2990.2359999999999</v>
+        <v>982.96299999999997</v>
       </c>
       <c r="I35">
-        <v>68.156000000000006</v>
+        <v>20.780999999999999</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3511,75 +3631,75 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1074.787</v>
+        <v>199.04400000000001</v>
       </c>
       <c r="O35">
-        <v>1522.828</v>
+        <v>238.446</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>246.577</v>
+        <v>-2.6190000000000002</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>4694</v>
+        <v>1603</v>
       </c>
       <c r="T35">
-        <v>1467.4079999999999</v>
+        <v>744.51700000000005</v>
       </c>
       <c r="U35">
-        <v>726.66200000000003</v>
+        <v>119.688</v>
       </c>
       <c r="V35">
-        <v>193.55199999999999</v>
+        <v>39.207999999999998</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-100.01300000000001</v>
+        <v>-27.695</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>182.35900000000001</v>
+        <v>-10.625999999999999</v>
       </c>
       <c r="AA35">
-        <v>116.087</v>
+        <v>18.986000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>85.905000000000001</v>
+        <v>22.776</v>
       </c>
       <c r="D36">
-        <v>563.39400000000001</v>
+        <v>158.23099999999999</v>
       </c>
       <c r="E36">
-        <v>372.26299999999998</v>
+        <v>91.635000000000005</v>
       </c>
       <c r="F36">
-        <v>472.62700000000001</v>
+        <v>124.566</v>
       </c>
       <c r="G36">
-        <v>1504.9010000000001</v>
+        <v>401.44499999999999</v>
       </c>
       <c r="H36">
-        <v>3177.2750000000001</v>
+        <v>1017.588</v>
       </c>
       <c r="I36">
-        <v>55.63</v>
+        <v>16.385999999999999</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3594,75 +3714,75 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1072.066</v>
+        <v>202.16499999999999</v>
       </c>
       <c r="O36">
-        <v>1553.4929999999999</v>
+        <v>243.17599999999999</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>-36.487000000000002</v>
+        <v>-31.399000000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>5091</v>
+        <v>1604</v>
       </c>
       <c r="T36">
-        <v>1623.7819999999999</v>
+        <v>774.41200000000003</v>
       </c>
       <c r="U36">
-        <v>688.35</v>
+        <v>88.289000000000001</v>
       </c>
       <c r="V36">
-        <v>150.345</v>
+        <v>46.238999999999997</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>26.555</v>
+        <v>-6.1879999999999997</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>430.96100000000001</v>
+        <v>-70.034000000000006</v>
       </c>
       <c r="AA36">
-        <v>85.905000000000001</v>
+        <v>22.776</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>94.837000000000003</v>
+        <v>28.35</v>
       </c>
       <c r="D37">
-        <v>590.38800000000003</v>
+        <v>175.13</v>
       </c>
       <c r="E37">
-        <v>401.43599999999998</v>
+        <v>106.973</v>
       </c>
       <c r="F37">
-        <v>499.47</v>
+        <v>138.67400000000001</v>
       </c>
       <c r="G37">
-        <v>1511.586</v>
+        <v>468.18200000000002</v>
       </c>
       <c r="H37">
-        <v>3390.2750000000001</v>
+        <v>1068.645</v>
       </c>
       <c r="I37">
-        <v>62.627000000000002</v>
+        <v>18.890999999999998</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3677,75 +3797,75 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1105.5260000000001</v>
+        <v>223.01400000000001</v>
       </c>
       <c r="O37">
-        <v>1628.778</v>
+        <v>269.625</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>-89.108999999999995</v>
+        <v>22.547999999999998</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>5325</v>
+        <v>1646</v>
       </c>
       <c r="T37">
-        <v>1761.4970000000001</v>
+        <v>799.02</v>
       </c>
       <c r="U37">
-        <v>599.21900000000005</v>
+        <v>110.837</v>
       </c>
       <c r="V37">
-        <v>206.08600000000001</v>
+        <v>58.616</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>0.14299999999999999</v>
+        <v>-19.963000000000001</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>-273.51499999999999</v>
+        <v>-13.144</v>
       </c>
       <c r="AA37">
-        <v>94.837000000000003</v>
+        <v>28.35</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>98.527000000000001</v>
+        <v>29.279</v>
       </c>
       <c r="D38">
-        <v>569.30499999999995</v>
+        <v>191.15600000000001</v>
       </c>
       <c r="E38">
-        <v>439.786</v>
+        <v>108.657</v>
       </c>
       <c r="F38">
-        <v>480.66300000000001</v>
+        <v>152.02699999999999</v>
       </c>
       <c r="G38">
-        <v>1737.471</v>
+        <v>526.31299999999999</v>
       </c>
       <c r="H38">
-        <v>3875.36</v>
+        <v>1139.7439999999999</v>
       </c>
       <c r="I38">
-        <v>52.406999999999996</v>
+        <v>12.694000000000001</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1150.5070000000001</v>
+        <v>236.749</v>
       </c>
       <c r="O38">
-        <v>1945.902</v>
+        <v>290.976</v>
       </c>
       <c r="P38">
-        <v>384.822</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>136.39099999999999</v>
+        <v>36.448</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>5194</v>
+        <v>1742</v>
       </c>
       <c r="T38">
-        <v>1929.4580000000001</v>
+        <v>848.76800000000003</v>
       </c>
       <c r="U38">
-        <v>735.45699999999999</v>
+        <v>147.285</v>
       </c>
       <c r="V38">
-        <v>144.012</v>
+        <v>73.992000000000004</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>20.959</v>
+        <v>3.4119999999999999</v>
       </c>
       <c r="Y38">
-        <v>342.303</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-7.0960000000000001</v>
+        <v>-37.348999999999997</v>
       </c>
       <c r="AA38">
-        <v>98.527000000000001</v>
+        <v>29.279</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>61.378999999999998</v>
+        <v>33.143999999999998</v>
       </c>
       <c r="D39">
-        <v>583.44899999999996</v>
+        <v>206.06800000000001</v>
       </c>
       <c r="E39">
-        <v>439.70400000000001</v>
+        <v>89.385000000000005</v>
       </c>
       <c r="F39">
-        <v>482.21100000000001</v>
+        <v>164.65199999999999</v>
       </c>
       <c r="G39">
-        <v>1408.731</v>
+        <v>525.82299999999998</v>
       </c>
       <c r="H39">
-        <v>4440.9769999999999</v>
+        <v>1187.1099999999999</v>
       </c>
       <c r="I39">
-        <v>56.2</v>
+        <v>11.733000000000001</v>
       </c>
       <c r="J39">
-        <v>378.685</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1252.0060000000001</v>
+        <v>238.4</v>
       </c>
       <c r="O39">
-        <v>2442.7829999999999</v>
+        <v>299.53399999999999</v>
       </c>
       <c r="P39">
-        <v>802.44500000000005</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>-159.28</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>5605</v>
+        <v>1823</v>
       </c>
       <c r="T39">
-        <v>1998.194</v>
+        <v>887.57600000000002</v>
       </c>
       <c r="U39">
-        <v>572.88800000000003</v>
+        <v>148.524</v>
       </c>
       <c r="V39">
-        <v>181.80799999999999</v>
+        <v>77.92</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>347.435</v>
+        <v>-9.5630000000000006</v>
       </c>
       <c r="Y39">
-        <v>357.64499999999998</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>282.12</v>
+        <v>-63.466000000000001</v>
       </c>
       <c r="AA39">
-        <v>61.378999999999998</v>
+        <v>33.143999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>69.872</v>
+        <v>40.494999999999997</v>
       </c>
       <c r="D40">
-        <v>583.25199999999995</v>
+        <v>230.47399999999999</v>
       </c>
       <c r="E40">
-        <v>428.82100000000003</v>
+        <v>102.82899999999999</v>
       </c>
       <c r="F40">
-        <v>477.21199999999999</v>
+        <v>185.89500000000001</v>
       </c>
       <c r="G40">
-        <v>1665.434</v>
+        <v>560.08600000000001</v>
       </c>
       <c r="H40">
-        <v>4573.357</v>
+        <v>1267.2729999999999</v>
       </c>
       <c r="I40">
-        <v>54.389000000000003</v>
+        <v>22.657</v>
       </c>
       <c r="J40">
-        <v>373.86599999999999</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1263.316</v>
+        <v>259.30799999999999</v>
       </c>
       <c r="O40">
-        <v>2419.4580000000001</v>
+        <v>325.67099999999999</v>
       </c>
       <c r="P40">
-        <v>785.20799999999997</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>138.161</v>
+        <v>-4.7110000000000003</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>5786</v>
+        <v>1899</v>
       </c>
       <c r="T40">
-        <v>2153.8989999999999</v>
+        <v>941.60199999999998</v>
       </c>
       <c r="U40">
-        <v>714.26800000000003</v>
+        <v>143.81299999999999</v>
       </c>
       <c r="V40">
-        <v>159.17400000000001</v>
+        <v>75.308999999999997</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>25.556000000000001</v>
+        <v>-3.0920000000000001</v>
       </c>
       <c r="Y40">
-        <v>345.577</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-34.408999999999999</v>
+        <v>-72.555000000000007</v>
       </c>
       <c r="AA40">
-        <v>69.872</v>
+        <v>40.494999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>77.662999999999997</v>
+        <v>48.234999999999999</v>
       </c>
       <c r="D41">
-        <v>614.81600000000003</v>
+        <v>254.274</v>
       </c>
       <c r="E41">
-        <v>434.279</v>
+        <v>112.13200000000001</v>
       </c>
       <c r="F41">
-        <v>502.84899999999999</v>
+        <v>207.446</v>
       </c>
       <c r="G41">
-        <v>1793.4760000000001</v>
+        <v>605.95500000000004</v>
       </c>
       <c r="H41">
-        <v>4677.92</v>
+        <v>1362.192</v>
       </c>
       <c r="I41">
-        <v>64.471999999999994</v>
+        <v>21.18</v>
       </c>
       <c r="J41">
-        <v>369.04700000000003</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1288.279</v>
+        <v>287.08499999999998</v>
       </c>
       <c r="O41">
-        <v>2445.652</v>
+        <v>358.49400000000003</v>
       </c>
       <c r="P41">
-        <v>773.04700000000003</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>135.30000000000001</v>
+        <v>24.940999999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>6048</v>
+        <v>2012</v>
       </c>
       <c r="T41">
-        <v>2232.268</v>
+        <v>1003.698</v>
       </c>
       <c r="U41">
-        <v>849.55600000000004</v>
+        <v>168.75399999999999</v>
       </c>
       <c r="V41">
-        <v>175.904</v>
+        <v>86.391000000000005</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-56.707000000000001</v>
+        <v>-7.5549999999999997</v>
       </c>
       <c r="Y41">
-        <v>338.71499999999997</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>27.896999999999998</v>
+        <v>-54.758000000000003</v>
       </c>
       <c r="AA41">
-        <v>77.662999999999997</v>
+        <v>48.234999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>55.662999999999997</v>
+      </c>
+      <c r="D42">
+        <v>268.93400000000003</v>
+      </c>
+      <c r="E42">
+        <v>141.98599999999999</v>
+      </c>
+      <c r="F42">
+        <v>219.971</v>
+      </c>
+      <c r="G42">
+        <v>684.53899999999999</v>
+      </c>
+      <c r="H42">
+        <v>1475.837</v>
+      </c>
+      <c r="I42">
+        <v>31.254000000000001</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>327.86599999999999</v>
+      </c>
+      <c r="O42">
+        <v>400.738</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>-0.621</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>2129</v>
+      </c>
+      <c r="T42">
+        <v>1075.0989999999999</v>
+      </c>
+      <c r="U42">
+        <v>168.13300000000001</v>
+      </c>
+      <c r="V42">
+        <v>103.139</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-6.0259999999999998</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-91.649000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>55.662999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>55.575000000000003</v>
+      </c>
+      <c r="D43">
+        <v>277.572</v>
+      </c>
+      <c r="E43">
+        <v>142.90299999999999</v>
+      </c>
+      <c r="F43">
+        <v>226.899</v>
+      </c>
+      <c r="G43">
+        <v>690.83900000000006</v>
+      </c>
+      <c r="H43">
+        <v>1538.5229999999999</v>
+      </c>
+      <c r="I43">
+        <v>30.827000000000002</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>342.08499999999998</v>
+      </c>
+      <c r="O43">
+        <v>426.22</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>38.082000000000001</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>2254</v>
+      </c>
+      <c r="T43">
+        <v>1112.3030000000001</v>
+      </c>
+      <c r="U43">
+        <v>206.215</v>
+      </c>
+      <c r="V43">
+        <v>91.228999999999999</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-39.996000000000002</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-7.3040000000000003</v>
+      </c>
+      <c r="AA43">
+        <v>55.575000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>62.548999999999999</v>
+      </c>
+      <c r="D44">
+        <v>290.71300000000002</v>
+      </c>
+      <c r="E44">
+        <v>154.74100000000001</v>
+      </c>
+      <c r="F44">
+        <v>238.26499999999999</v>
+      </c>
+      <c r="G44">
+        <v>797.22799999999995</v>
+      </c>
+      <c r="H44">
+        <v>1597.134</v>
+      </c>
+      <c r="I44">
+        <v>34.07</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>349.017</v>
+      </c>
+      <c r="O44">
+        <v>431.96600000000001</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>93.588999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>2347</v>
+      </c>
+      <c r="T44">
+        <v>1165.1679999999999</v>
+      </c>
+      <c r="U44">
+        <v>299.80399999999997</v>
+      </c>
+      <c r="V44">
+        <v>101.07599999999999</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-34.152000000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>35.906999999999996</v>
+      </c>
+      <c r="AA44">
+        <v>62.548999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>67.61</v>
+      </c>
+      <c r="D45">
+        <v>314.61500000000001</v>
+      </c>
+      <c r="E45">
+        <v>165.67599999999999</v>
+      </c>
+      <c r="F45">
+        <v>258.69499999999999</v>
+      </c>
+      <c r="G45">
+        <v>763.673</v>
+      </c>
+      <c r="H45">
+        <v>1568.549</v>
+      </c>
+      <c r="I45">
+        <v>33.524999999999999</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>372.30700000000002</v>
+      </c>
+      <c r="O45">
+        <v>463.113</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>-83.02</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>2488</v>
+      </c>
+      <c r="T45">
+        <v>1105.4359999999999</v>
+      </c>
+      <c r="U45">
+        <v>216.78399999999999</v>
+      </c>
+      <c r="V45">
+        <v>121.494</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-146.49</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-40.531999999999996</v>
+      </c>
+      <c r="AA45">
+        <v>67.61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>66.492000000000004</v>
+      </c>
+      <c r="D46">
+        <v>322.43200000000002</v>
+      </c>
+      <c r="E46">
+        <v>187.86199999999999</v>
+      </c>
+      <c r="F46">
+        <v>266.82600000000002</v>
+      </c>
+      <c r="G46">
+        <v>804.10199999999998</v>
+      </c>
+      <c r="H46">
+        <v>1698.6890000000001</v>
+      </c>
+      <c r="I46">
+        <v>32.566000000000003</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>432.75400000000002</v>
+      </c>
+      <c r="O46">
+        <v>528.49900000000002</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>40.704000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>2616</v>
+      </c>
+      <c r="T46">
+        <v>1170.19</v>
+      </c>
+      <c r="U46">
+        <v>257.488</v>
+      </c>
+      <c r="V46">
+        <v>131.87899999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-23.497</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-61.511000000000003</v>
+      </c>
+      <c r="AA46">
+        <v>66.492000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>68.641000000000005</v>
+      </c>
+      <c r="D47">
+        <v>339.62200000000001</v>
+      </c>
+      <c r="E47">
+        <v>184.04300000000001</v>
+      </c>
+      <c r="F47">
+        <v>282.02800000000002</v>
+      </c>
+      <c r="G47">
+        <v>746.51800000000003</v>
+      </c>
+      <c r="H47">
+        <v>1758.271</v>
+      </c>
+      <c r="I47">
+        <v>29.904</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>433.88600000000002</v>
+      </c>
+      <c r="O47">
+        <v>541.053</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>-48.029000000000003</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>2805</v>
+      </c>
+      <c r="T47">
+        <v>1217.2180000000001</v>
+      </c>
+      <c r="U47">
+        <v>209.459</v>
+      </c>
+      <c r="V47">
+        <v>101.604</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-45.73</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>31.297999999999998</v>
+      </c>
+      <c r="AA47">
+        <v>68.641000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>72.335999999999999</v>
+      </c>
+      <c r="D48">
+        <v>352.63400000000001</v>
+      </c>
+      <c r="E48">
+        <v>193.70500000000001</v>
+      </c>
+      <c r="F48">
+        <v>292.34699999999998</v>
+      </c>
+      <c r="G48">
+        <v>782.88699999999994</v>
+      </c>
+      <c r="H48">
+        <v>1838.066</v>
+      </c>
+      <c r="I48">
+        <v>32.006999999999998</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>446.64</v>
+      </c>
+      <c r="O48">
+        <v>555.89800000000002</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>-13.852</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>2903</v>
+      </c>
+      <c r="T48">
+        <v>1282.1679999999999</v>
+      </c>
+      <c r="U48">
+        <v>195.607</v>
+      </c>
+      <c r="V48">
+        <v>113.399</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-31.181000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-89.751000000000005</v>
+      </c>
+      <c r="AA48">
+        <v>72.335999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>67.716999999999999</v>
+      </c>
+      <c r="D49">
+        <v>362.55900000000003</v>
+      </c>
+      <c r="E49">
+        <v>185.172</v>
+      </c>
+      <c r="F49">
+        <v>299.87799999999999</v>
+      </c>
+      <c r="G49">
+        <v>776.08100000000002</v>
+      </c>
+      <c r="H49">
+        <v>1911.201</v>
+      </c>
+      <c r="I49">
+        <v>27.026</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>466.029</v>
+      </c>
+      <c r="O49">
+        <v>581.80100000000004</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>15.574</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>3029</v>
+      </c>
+      <c r="T49">
+        <v>1329.4</v>
+      </c>
+      <c r="U49">
+        <v>211.18100000000001</v>
+      </c>
+      <c r="V49">
+        <v>148.55500000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-48.823</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-73.843999999999994</v>
+      </c>
+      <c r="AA49">
+        <v>67.716999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>69.492999999999995</v>
+      </c>
+      <c r="D50">
+        <v>365.45100000000002</v>
+      </c>
+      <c r="E50">
+        <v>209.078</v>
+      </c>
+      <c r="F50">
+        <v>304.56599999999997</v>
+      </c>
+      <c r="G50">
+        <v>791.78899999999999</v>
+      </c>
+      <c r="H50">
+        <v>2037.652</v>
+      </c>
+      <c r="I50">
+        <v>32.220999999999997</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>529.57799999999997</v>
+      </c>
+      <c r="O50">
+        <v>651.35299999999995</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>-26.617999999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>3127</v>
+      </c>
+      <c r="T50">
+        <v>1386.299</v>
+      </c>
+      <c r="U50">
+        <v>184.56299999999999</v>
+      </c>
+      <c r="V50">
+        <v>144.80600000000001</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-37.914000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-124.901</v>
+      </c>
+      <c r="AA50">
+        <v>69.492999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>63.411999999999999</v>
+      </c>
+      <c r="D51">
+        <v>350.23200000000003</v>
+      </c>
+      <c r="E51">
+        <v>192.79599999999999</v>
+      </c>
+      <c r="F51">
+        <v>289.93</v>
+      </c>
+      <c r="G51">
+        <v>804.42399999999998</v>
+      </c>
+      <c r="H51">
+        <v>2065.9090000000001</v>
+      </c>
+      <c r="I51">
+        <v>39.1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>520.74400000000003</v>
+      </c>
+      <c r="O51">
+        <v>637.73</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>45.098999999999997</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>3155</v>
+      </c>
+      <c r="T51">
+        <v>1428.1790000000001</v>
+      </c>
+      <c r="U51">
+        <v>229.66200000000001</v>
+      </c>
+      <c r="V51">
+        <v>80.662000000000006</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-47.651000000000003</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>145.23500000000001</v>
+      </c>
+      <c r="AA51">
+        <v>63.411999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>68.177999999999997</v>
+      </c>
+      <c r="D52">
+        <v>370.30200000000002</v>
+      </c>
+      <c r="E52">
+        <v>205.13800000000001</v>
+      </c>
+      <c r="F52">
+        <v>305.38499999999999</v>
+      </c>
+      <c r="G52">
+        <v>834.30899999999997</v>
+      </c>
+      <c r="H52">
+        <v>2147.8029999999999</v>
+      </c>
+      <c r="I52">
+        <v>28.690999999999999</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>529.94799999999998</v>
+      </c>
+      <c r="O52">
+        <v>659.61699999999996</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>-31.382000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>3184</v>
+      </c>
+      <c r="T52">
+        <v>1488.1859999999999</v>
+      </c>
+      <c r="U52">
+        <v>198.28</v>
+      </c>
+      <c r="V52">
+        <v>126.23</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-31.373999999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-117.339</v>
+      </c>
+      <c r="AA52">
+        <v>68.177999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>76.230999999999995</v>
+      </c>
+      <c r="D53">
+        <v>395.32900000000001</v>
+      </c>
+      <c r="E53">
+        <v>204.20500000000001</v>
+      </c>
+      <c r="F53">
+        <v>328.38600000000002</v>
+      </c>
+      <c r="G53">
+        <v>816.37099999999998</v>
+      </c>
+      <c r="H53">
+        <v>2230.5540000000001</v>
+      </c>
+      <c r="I53">
+        <v>37.313000000000002</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>551.35</v>
+      </c>
+      <c r="O53">
+        <v>691.84199999999998</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>-8.5869999999999997</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>3356</v>
+      </c>
+      <c r="T53">
+        <v>1538.712</v>
+      </c>
+      <c r="U53">
+        <v>189.69300000000001</v>
+      </c>
+      <c r="V53">
+        <v>147.995</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-49.378999999999998</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-15.628</v>
+      </c>
+      <c r="AA53">
+        <v>76.230999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>68.048000000000002</v>
+      </c>
+      <c r="D54">
+        <v>406.452</v>
+      </c>
+      <c r="E54">
+        <v>220.78399999999999</v>
+      </c>
+      <c r="F54">
+        <v>333.56900000000002</v>
+      </c>
+      <c r="G54">
+        <v>870.94299999999998</v>
+      </c>
+      <c r="H54">
+        <v>2214.8389999999999</v>
+      </c>
+      <c r="I54">
+        <v>38.151000000000003</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>613.971</v>
+      </c>
+      <c r="O54">
+        <v>760.76900000000001</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>41.634999999999998</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>3520</v>
+      </c>
+      <c r="T54">
+        <v>1454.07</v>
+      </c>
+      <c r="U54">
+        <v>231.328</v>
+      </c>
+      <c r="V54">
+        <v>158.92599999999999</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-186.63</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>75.152000000000001</v>
+      </c>
+      <c r="AA54">
+        <v>68.048000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>69.641000000000005</v>
+      </c>
+      <c r="D55">
+        <v>420.04300000000001</v>
+      </c>
+      <c r="E55">
+        <v>223.47200000000001</v>
+      </c>
+      <c r="F55">
+        <v>344.38099999999997</v>
+      </c>
+      <c r="G55">
+        <v>950.41899999999998</v>
+      </c>
+      <c r="H55">
+        <v>2166.1999999999998</v>
+      </c>
+      <c r="I55">
+        <v>40.371000000000002</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>597.84299999999996</v>
+      </c>
+      <c r="O55">
+        <v>751.26099999999997</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>8.5079999999999991</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>3636</v>
+      </c>
+      <c r="T55">
+        <v>1414.9390000000001</v>
+      </c>
+      <c r="U55">
+        <v>239.83600000000001</v>
+      </c>
+      <c r="V55">
+        <v>81.966999999999999</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-144.64500000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>75.745999999999995</v>
+      </c>
+      <c r="AA55">
+        <v>69.641000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>79.472999999999999</v>
+      </c>
+      <c r="D56">
+        <v>440.28500000000003</v>
+      </c>
+      <c r="E56">
+        <v>243.072</v>
+      </c>
+      <c r="F56">
+        <v>360.82299999999998</v>
+      </c>
+      <c r="G56">
+        <v>945.12300000000005</v>
+      </c>
+      <c r="H56">
+        <v>2175.4850000000001</v>
+      </c>
+      <c r="I56">
+        <v>36.399000000000001</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>611.22</v>
+      </c>
+      <c r="O56">
+        <v>774.77099999999996</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>2.137</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>3743</v>
+      </c>
+      <c r="T56">
+        <v>1400.7139999999999</v>
+      </c>
+      <c r="U56">
+        <v>241.97300000000001</v>
+      </c>
+      <c r="V56">
+        <v>138.23400000000001</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-125.86499999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>44.497</v>
+      </c>
+      <c r="AA56">
+        <v>79.472999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>94.021000000000001</v>
+      </c>
+      <c r="D57">
+        <v>465.26600000000002</v>
+      </c>
+      <c r="E57">
+        <v>242.24199999999999</v>
+      </c>
+      <c r="F57">
+        <v>383.31400000000002</v>
+      </c>
+      <c r="G57">
+        <v>998.84799999999996</v>
+      </c>
+      <c r="H57">
+        <v>2184.9499999999998</v>
+      </c>
+      <c r="I57">
+        <v>43.771999999999998</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>636.98099999999999</v>
+      </c>
+      <c r="O57">
+        <v>815.64</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>39.529000000000003</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>3834</v>
+      </c>
+      <c r="T57">
+        <v>1369.31</v>
+      </c>
+      <c r="U57">
+        <v>281.50200000000001</v>
+      </c>
+      <c r="V57">
+        <v>169.86500000000001</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-147.82</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>27.344000000000001</v>
+      </c>
+      <c r="AA57">
+        <v>94.021000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>89.075999999999993</v>
+      </c>
+      <c r="D58">
+        <v>462.79300000000001</v>
+      </c>
+      <c r="E58">
+        <v>255.864</v>
+      </c>
+      <c r="F58">
+        <v>383.44499999999999</v>
+      </c>
+      <c r="G58">
+        <v>1026.857</v>
+      </c>
+      <c r="H58">
+        <v>2236.424</v>
+      </c>
+      <c r="I58">
+        <v>41.222999999999999</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>695.62400000000002</v>
+      </c>
+      <c r="O58">
+        <v>880.64700000000005</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>-12.548</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>3942</v>
+      </c>
+      <c r="T58">
+        <v>1355.777</v>
+      </c>
+      <c r="U58">
+        <v>268.95400000000001</v>
+      </c>
+      <c r="V58">
+        <v>186.39500000000001</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-130.76900000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-54.261000000000003</v>
+      </c>
+      <c r="AA58">
+        <v>89.075999999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>85.728999999999999</v>
+      </c>
+      <c r="D59">
+        <v>472.14299999999997</v>
+      </c>
+      <c r="E59">
+        <v>262.62400000000002</v>
+      </c>
+      <c r="F59">
+        <v>389.54700000000003</v>
+      </c>
+      <c r="G59">
+        <v>1052.124</v>
+      </c>
+      <c r="H59">
+        <v>2221.279</v>
+      </c>
+      <c r="I59">
+        <v>34.683</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>697.726</v>
+      </c>
+      <c r="O59">
+        <v>899.88300000000004</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>98.650999999999996</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>4033</v>
+      </c>
+      <c r="T59">
+        <v>1321.396</v>
+      </c>
+      <c r="U59">
+        <v>367.60500000000002</v>
+      </c>
+      <c r="V59">
+        <v>142.29599999999999</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-155.25299999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>130.42599999999999</v>
+      </c>
+      <c r="AA59">
+        <v>85.728999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>93.171999999999997</v>
+      </c>
+      <c r="D60">
+        <v>483.58600000000001</v>
+      </c>
+      <c r="E60">
+        <v>261.06799999999998</v>
+      </c>
+      <c r="F60">
+        <v>397.92700000000002</v>
+      </c>
+      <c r="G60">
+        <v>1185.508</v>
+      </c>
+      <c r="H60">
+        <v>2262.3510000000001</v>
+      </c>
+      <c r="I60">
+        <v>48.985999999999997</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>717.447</v>
+      </c>
+      <c r="O60">
+        <v>935.24900000000002</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>194.57499999999999</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>4108</v>
+      </c>
+      <c r="T60">
+        <v>1327.1020000000001</v>
+      </c>
+      <c r="U60">
+        <v>562.17999999999995</v>
+      </c>
+      <c r="V60">
+        <v>172.50700000000001</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-123.804</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>166.453</v>
+      </c>
+      <c r="AA60">
+        <v>93.171999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>97.037000000000006</v>
+      </c>
+      <c r="D61">
+        <v>501.30099999999999</v>
+      </c>
+      <c r="E61">
+        <v>279.43400000000003</v>
+      </c>
+      <c r="F61">
+        <v>416.64299999999997</v>
+      </c>
+      <c r="G61">
+        <v>1188.1400000000001</v>
+      </c>
+      <c r="H61">
+        <v>2312.29</v>
+      </c>
+      <c r="I61">
+        <v>50.814</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>755.12300000000005</v>
+      </c>
+      <c r="O61">
+        <v>995.56200000000001</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>-171.72</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>4178</v>
+      </c>
+      <c r="T61">
+        <v>1316.7280000000001</v>
+      </c>
+      <c r="U61">
+        <v>390.46</v>
+      </c>
+      <c r="V61">
+        <v>183.34299999999999</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-147.07599999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-185.874</v>
+      </c>
+      <c r="AA61">
+        <v>97.037000000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>89.715999999999994</v>
+      </c>
+      <c r="D62">
+        <v>489.48599999999999</v>
+      </c>
+      <c r="E62">
+        <v>279.15800000000002</v>
+      </c>
+      <c r="F62">
+        <v>403.803</v>
+      </c>
+      <c r="G62">
+        <v>1208.133</v>
+      </c>
+      <c r="H62">
+        <v>2316.0810000000001</v>
+      </c>
+      <c r="I62">
+        <v>37.555999999999997</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>802.58299999999997</v>
+      </c>
+      <c r="O62">
+        <v>1053.5530000000001</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>42.837000000000003</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>4273</v>
+      </c>
+      <c r="T62">
+        <v>1262.528</v>
+      </c>
+      <c r="U62">
+        <v>433.29700000000003</v>
+      </c>
+      <c r="V62">
+        <v>203.87100000000001</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-180.36699999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>35.988</v>
+      </c>
+      <c r="AA62">
+        <v>89.715999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>75.415000000000006</v>
+      </c>
+      <c r="D63">
+        <v>483.67700000000002</v>
+      </c>
+      <c r="E63">
+        <v>266.185</v>
+      </c>
+      <c r="F63">
+        <v>401.447</v>
+      </c>
+      <c r="G63">
+        <v>1193.981</v>
+      </c>
+      <c r="H63">
+        <v>2242.14</v>
+      </c>
+      <c r="I63">
+        <v>37.243000000000002</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>800.43499999999995</v>
+      </c>
+      <c r="O63">
+        <v>1061.146</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>-34.972000000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>4323</v>
+      </c>
+      <c r="T63">
+        <v>1180.9939999999999</v>
+      </c>
+      <c r="U63">
+        <v>398.32499999999999</v>
+      </c>
+      <c r="V63">
+        <v>133.11799999999999</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-199.738</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>45.994</v>
+      </c>
+      <c r="AA63">
+        <v>75.415000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>91.789000000000001</v>
+      </c>
+      <c r="D64">
+        <v>496.52199999999999</v>
+      </c>
+      <c r="E64">
+        <v>263.24900000000002</v>
+      </c>
+      <c r="F64">
+        <v>412.17899999999997</v>
+      </c>
+      <c r="G64">
+        <v>1207.963</v>
+      </c>
+      <c r="H64">
+        <v>2253.7829999999999</v>
+      </c>
+      <c r="I64">
+        <v>37.451999999999998</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>799.41</v>
+      </c>
+      <c r="O64">
+        <v>1066.7180000000001</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>31.271999999999998</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>4326</v>
+      </c>
+      <c r="T64">
+        <v>1187.0650000000001</v>
+      </c>
+      <c r="U64">
+        <v>429.59699999999998</v>
+      </c>
+      <c r="V64">
+        <v>170.476</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-123.55200000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AA64">
+        <v>91.789000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>108.935</v>
+      </c>
+      <c r="D65">
+        <v>525.34900000000005</v>
+      </c>
+      <c r="E65">
+        <v>268.17500000000001</v>
+      </c>
+      <c r="F65">
+        <v>440.4</v>
+      </c>
+      <c r="G65">
+        <v>1288.8009999999999</v>
+      </c>
+      <c r="H65">
+        <v>2306.3229999999999</v>
+      </c>
+      <c r="I65">
+        <v>34.116999999999997</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>844.23800000000006</v>
+      </c>
+      <c r="O65">
+        <v>1121.0609999999999</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>84.974000000000004</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>4395</v>
+      </c>
+      <c r="T65">
+        <v>1185.2619999999999</v>
+      </c>
+      <c r="U65">
+        <v>514.57100000000003</v>
+      </c>
+      <c r="V65">
+        <v>204.07</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-148.99</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>48.445999999999998</v>
+      </c>
+      <c r="AA65">
+        <v>108.935</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>94.218000000000004</v>
+      </c>
+      <c r="D66">
+        <v>515.95799999999997</v>
+      </c>
+      <c r="E66">
+        <v>313.21100000000001</v>
+      </c>
+      <c r="F66">
+        <v>430.69600000000003</v>
+      </c>
+      <c r="G66">
+        <v>1427.4960000000001</v>
+      </c>
+      <c r="H66">
+        <v>2397.0949999999998</v>
+      </c>
+      <c r="I66">
+        <v>49.924999999999997</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>918.68299999999999</v>
+      </c>
+      <c r="O66">
+        <v>1202.1020000000001</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>58.363</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>4463</v>
+      </c>
+      <c r="T66">
+        <v>1194.9929999999999</v>
+      </c>
+      <c r="U66">
+        <v>572.93399999999997</v>
+      </c>
+      <c r="V66">
+        <v>189.31200000000001</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-128.245</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>17.972000000000001</v>
+      </c>
+      <c r="AA66">
+        <v>94.218000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>93.138000000000005</v>
+      </c>
+      <c r="D67">
+        <v>518.24800000000005</v>
+      </c>
+      <c r="E67">
+        <v>293.87200000000001</v>
+      </c>
+      <c r="F67">
+        <v>430.33600000000001</v>
+      </c>
+      <c r="G67">
+        <v>1444.8430000000001</v>
+      </c>
+      <c r="H67">
+        <v>2387.9169999999999</v>
+      </c>
+      <c r="I67">
+        <v>47.289000000000001</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>916.01800000000003</v>
+      </c>
+      <c r="O67">
+        <v>1203.3119999999999</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>82.838999999999999</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>4419</v>
+      </c>
+      <c r="T67">
+        <v>1184.605</v>
+      </c>
+      <c r="U67">
+        <v>655.77300000000002</v>
+      </c>
+      <c r="V67">
+        <v>175.34</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-147.69</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>64.188999999999993</v>
+      </c>
+      <c r="AA67">
+        <v>93.138000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>97.662000000000006</v>
+      </c>
+      <c r="D68">
+        <v>517.83699999999999</v>
+      </c>
+      <c r="E68">
+        <v>295.08499999999998</v>
+      </c>
+      <c r="F68">
+        <v>428.06700000000001</v>
+      </c>
+      <c r="G68">
+        <v>1445.9010000000001</v>
+      </c>
+      <c r="H68">
+        <v>2418.5720000000001</v>
+      </c>
+      <c r="I68">
+        <v>44.543999999999997</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>909.34100000000001</v>
+      </c>
+      <c r="O68">
+        <v>1213.9649999999999</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>35.139000000000003</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>4420</v>
+      </c>
+      <c r="T68">
+        <v>1204.607</v>
+      </c>
+      <c r="U68">
+        <v>690.91200000000003</v>
+      </c>
+      <c r="V68">
+        <v>162.56399999999999</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-120.7</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0.188</v>
+      </c>
+      <c r="AA68">
+        <v>97.662000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>135.74299999999999</v>
+      </c>
+      <c r="D69">
+        <v>537.99800000000005</v>
+      </c>
+      <c r="E69">
+        <v>291.92399999999998</v>
+      </c>
+      <c r="F69">
+        <v>447.45699999999999</v>
+      </c>
+      <c r="G69">
+        <v>1406.2239999999999</v>
+      </c>
+      <c r="H69">
+        <v>2476.489</v>
+      </c>
+      <c r="I69">
+        <v>50.76</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>934.54300000000001</v>
+      </c>
+      <c r="O69">
+        <v>1247.097</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>-17.684000000000001</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>4366</v>
+      </c>
+      <c r="T69">
+        <v>1229.3920000000001</v>
+      </c>
+      <c r="U69">
+        <v>673.22799999999995</v>
+      </c>
+      <c r="V69">
+        <v>213.065</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-149.39699999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-71.88</v>
+      </c>
+      <c r="AA69">
+        <v>135.74299999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>88.429000000000002</v>
+      </c>
+      <c r="D70">
+        <v>523.19100000000003</v>
+      </c>
+      <c r="E70">
+        <v>291.09300000000002</v>
+      </c>
+      <c r="F70">
+        <v>435.80399999999997</v>
+      </c>
+      <c r="G70">
+        <v>1380.817</v>
+      </c>
+      <c r="H70">
+        <v>2493.739</v>
+      </c>
+      <c r="I70">
+        <v>46.747999999999998</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>945.27599999999995</v>
+      </c>
+      <c r="O70">
+        <v>1266.5609999999999</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>-61.210999999999999</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>4276</v>
+      </c>
+      <c r="T70">
+        <v>1227.1780000000001</v>
+      </c>
+      <c r="U70">
+        <v>611.99599999999998</v>
+      </c>
+      <c r="V70">
+        <v>189.95699999999999</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-130.11000000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-115.613</v>
+      </c>
+      <c r="AA70">
+        <v>88.429000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>109.636</v>
+      </c>
+      <c r="D71">
+        <v>533.30399999999997</v>
+      </c>
+      <c r="E71">
+        <v>290.91899999999998</v>
+      </c>
+      <c r="F71">
+        <v>443.65899999999999</v>
+      </c>
+      <c r="G71">
+        <v>1407.229</v>
+      </c>
+      <c r="H71">
+        <v>2517.1460000000002</v>
+      </c>
+      <c r="I71">
+        <v>40.271000000000001</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>962.17100000000005</v>
+      </c>
+      <c r="O71">
+        <v>1290.5319999999999</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>-16.081</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>4289</v>
+      </c>
+      <c r="T71">
+        <v>1226.614</v>
+      </c>
+      <c r="U71">
+        <v>595.91700000000003</v>
+      </c>
+      <c r="V71">
+        <v>184.755</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-150.01900000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-41.591999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>109.636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>122.74299999999999</v>
+      </c>
+      <c r="D72">
+        <v>542.20299999999997</v>
+      </c>
+      <c r="E72">
+        <v>297.375</v>
+      </c>
+      <c r="F72">
+        <v>451.19400000000002</v>
+      </c>
+      <c r="G72">
+        <v>1469.05</v>
+      </c>
+      <c r="H72">
+        <v>2561.0659999999998</v>
+      </c>
+      <c r="I72">
+        <v>44.646999999999998</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>943.92499999999995</v>
+      </c>
+      <c r="O72">
+        <v>1295.0909999999999</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>3.29</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>4378</v>
+      </c>
+      <c r="T72">
+        <v>1265.9749999999999</v>
+      </c>
+      <c r="U72">
+        <v>599.26800000000003</v>
+      </c>
+      <c r="V72">
+        <v>182.05099999999999</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-121.117</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-35.652000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>122.74299999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>132.881</v>
+      </c>
+      <c r="D73">
+        <v>562.70899999999995</v>
+      </c>
+      <c r="E73">
+        <v>295.35199999999998</v>
+      </c>
+      <c r="F73">
+        <v>469.26900000000001</v>
+      </c>
+      <c r="G73">
+        <v>1417.6579999999999</v>
+      </c>
+      <c r="H73">
+        <v>2605.4760000000001</v>
+      </c>
+      <c r="I73">
+        <v>57.756999999999998</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>954.43299999999999</v>
+      </c>
+      <c r="O73">
+        <v>1319.9839999999999</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>-174.55600000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>4409</v>
+      </c>
+      <c r="T73">
+        <v>1285.492</v>
+      </c>
+      <c r="U73">
+        <v>424.70699999999999</v>
+      </c>
+      <c r="V73">
+        <v>204.30500000000001</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-150.017</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-210.70099999999999</v>
+      </c>
+      <c r="AA73">
+        <v>132.881</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>130.905</v>
+      </c>
+      <c r="D74">
+        <v>543.77</v>
+      </c>
+      <c r="E74">
+        <v>325.68799999999999</v>
+      </c>
+      <c r="F74">
+        <v>457.05599999999998</v>
+      </c>
+      <c r="G74">
+        <v>1619.636</v>
+      </c>
+      <c r="H74">
+        <v>2891.8960000000002</v>
+      </c>
+      <c r="I74">
+        <v>66.858999999999995</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1047.69</v>
+      </c>
+      <c r="O74">
+        <v>1482.7080000000001</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>55.378999999999998</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>4484</v>
+      </c>
+      <c r="T74">
+        <v>1409.1880000000001</v>
+      </c>
+      <c r="U74">
+        <v>480.12099999999998</v>
+      </c>
+      <c r="V74">
+        <v>197.858</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-82.132000000000005</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-39.347000000000001</v>
+      </c>
+      <c r="AA74">
+        <v>130.905</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>116.087</v>
+      </c>
+      <c r="D75">
+        <v>544.89499999999998</v>
+      </c>
+      <c r="E75">
+        <v>321.48399999999998</v>
+      </c>
+      <c r="F75">
+        <v>456.71699999999998</v>
+      </c>
+      <c r="G75">
+        <v>1807.46</v>
+      </c>
+      <c r="H75">
+        <v>2990.2359999999999</v>
+      </c>
+      <c r="I75">
+        <v>68.156000000000006</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1074.787</v>
+      </c>
+      <c r="O75">
+        <v>1522.828</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>246.577</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>4694</v>
+      </c>
+      <c r="T75">
+        <v>1467.4079999999999</v>
+      </c>
+      <c r="U75">
+        <v>726.66200000000003</v>
+      </c>
+      <c r="V75">
+        <v>193.55199999999999</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-100.01300000000001</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>182.35900000000001</v>
+      </c>
+      <c r="AA75">
+        <v>116.087</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>85.905000000000001</v>
+      </c>
+      <c r="D76">
+        <v>563.39400000000001</v>
+      </c>
+      <c r="E76">
+        <v>372.26299999999998</v>
+      </c>
+      <c r="F76">
+        <v>472.62700000000001</v>
+      </c>
+      <c r="G76">
+        <v>1504.9010000000001</v>
+      </c>
+      <c r="H76">
+        <v>3177.2750000000001</v>
+      </c>
+      <c r="I76">
+        <v>55.63</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1072.066</v>
+      </c>
+      <c r="O76">
+        <v>1553.4929999999999</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>-36.487000000000002</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>5091</v>
+      </c>
+      <c r="T76">
+        <v>1623.7819999999999</v>
+      </c>
+      <c r="U76">
+        <v>688.35</v>
+      </c>
+      <c r="V76">
+        <v>150.345</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>26.555</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>430.96100000000001</v>
+      </c>
+      <c r="AA76">
+        <v>85.905000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>94.837000000000003</v>
+      </c>
+      <c r="D77">
+        <v>590.38800000000003</v>
+      </c>
+      <c r="E77">
+        <v>401.43599999999998</v>
+      </c>
+      <c r="F77">
+        <v>499.47</v>
+      </c>
+      <c r="G77">
+        <v>1511.586</v>
+      </c>
+      <c r="H77">
+        <v>3390.2750000000001</v>
+      </c>
+      <c r="I77">
+        <v>62.627000000000002</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1105.5260000000001</v>
+      </c>
+      <c r="O77">
+        <v>1628.778</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>-89.108999999999995</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>5325</v>
+      </c>
+      <c r="T77">
+        <v>1761.4970000000001</v>
+      </c>
+      <c r="U77">
+        <v>599.21900000000005</v>
+      </c>
+      <c r="V77">
+        <v>206.08600000000001</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>-273.51499999999999</v>
+      </c>
+      <c r="AA77">
+        <v>94.837000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>98.527000000000001</v>
+      </c>
+      <c r="D78">
+        <v>569.30499999999995</v>
+      </c>
+      <c r="E78">
+        <v>439.786</v>
+      </c>
+      <c r="F78">
+        <v>480.66300000000001</v>
+      </c>
+      <c r="G78">
+        <v>1737.471</v>
+      </c>
+      <c r="H78">
+        <v>3875.36</v>
+      </c>
+      <c r="I78">
+        <v>52.406999999999996</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1150.5070000000001</v>
+      </c>
+      <c r="O78">
+        <v>1945.902</v>
+      </c>
+      <c r="P78">
+        <v>384.822</v>
+      </c>
+      <c r="Q78">
+        <v>136.39099999999999</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>5194</v>
+      </c>
+      <c r="T78">
+        <v>1929.4580000000001</v>
+      </c>
+      <c r="U78">
+        <v>735.45699999999999</v>
+      </c>
+      <c r="V78">
+        <v>144.012</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>20.959</v>
+      </c>
+      <c r="Y78">
+        <v>342.303</v>
+      </c>
+      <c r="Z78">
+        <v>-7.0960000000000001</v>
+      </c>
+      <c r="AA78">
+        <v>98.527000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>61.378999999999998</v>
+      </c>
+      <c r="D79">
+        <v>583.44899999999996</v>
+      </c>
+      <c r="E79">
+        <v>439.70400000000001</v>
+      </c>
+      <c r="F79">
+        <v>482.21100000000001</v>
+      </c>
+      <c r="G79">
+        <v>1408.731</v>
+      </c>
+      <c r="H79">
+        <v>4440.9769999999999</v>
+      </c>
+      <c r="I79">
+        <v>56.2</v>
+      </c>
+      <c r="J79">
+        <v>378.685</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1252.0060000000001</v>
+      </c>
+      <c r="O79">
+        <v>2442.7829999999999</v>
+      </c>
+      <c r="P79">
+        <v>802.44500000000005</v>
+      </c>
+      <c r="Q79">
+        <v>-159.28</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>5605</v>
+      </c>
+      <c r="T79">
+        <v>1998.194</v>
+      </c>
+      <c r="U79">
+        <v>572.88800000000003</v>
+      </c>
+      <c r="V79">
+        <v>181.80799999999999</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>347.435</v>
+      </c>
+      <c r="Y79">
+        <v>357.64499999999998</v>
+      </c>
+      <c r="Z79">
+        <v>282.12</v>
+      </c>
+      <c r="AA79">
+        <v>61.378999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>69.872</v>
+      </c>
+      <c r="D80">
+        <v>583.25199999999995</v>
+      </c>
+      <c r="E80">
+        <v>428.82100000000003</v>
+      </c>
+      <c r="F80">
+        <v>477.21199999999999</v>
+      </c>
+      <c r="G80">
+        <v>1665.434</v>
+      </c>
+      <c r="H80">
+        <v>4573.357</v>
+      </c>
+      <c r="I80">
+        <v>54.389000000000003</v>
+      </c>
+      <c r="J80">
+        <v>373.86599999999999</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1263.316</v>
+      </c>
+      <c r="O80">
+        <v>2419.4580000000001</v>
+      </c>
+      <c r="P80">
+        <v>785.20799999999997</v>
+      </c>
+      <c r="Q80">
+        <v>138.161</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>5786</v>
+      </c>
+      <c r="T80">
+        <v>2153.8989999999999</v>
+      </c>
+      <c r="U80">
+        <v>714.26800000000003</v>
+      </c>
+      <c r="V80">
+        <v>159.17400000000001</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>25.556000000000001</v>
+      </c>
+      <c r="Y80">
+        <v>345.577</v>
+      </c>
+      <c r="Z80">
+        <v>-34.408999999999999</v>
+      </c>
+      <c r="AA80">
+        <v>69.872</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>77.662999999999997</v>
+      </c>
+      <c r="D81">
+        <v>614.81600000000003</v>
+      </c>
+      <c r="E81">
+        <v>434.279</v>
+      </c>
+      <c r="F81">
+        <v>502.84899999999999</v>
+      </c>
+      <c r="G81">
+        <v>1793.4760000000001</v>
+      </c>
+      <c r="H81">
+        <v>4677.92</v>
+      </c>
+      <c r="I81">
+        <v>64.471999999999994</v>
+      </c>
+      <c r="J81">
+        <v>369.04700000000003</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1288.279</v>
+      </c>
+      <c r="O81">
+        <v>2445.652</v>
+      </c>
+      <c r="P81">
+        <v>773.04700000000003</v>
+      </c>
+      <c r="Q81">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>6048</v>
+      </c>
+      <c r="T81">
+        <v>2232.268</v>
+      </c>
+      <c r="U81">
+        <v>849.55600000000004</v>
+      </c>
+      <c r="V81">
+        <v>175.904</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-56.707000000000001</v>
+      </c>
+      <c r="Y81">
+        <v>338.71499999999997</v>
+      </c>
+      <c r="Z81">
+        <v>27.896999999999998</v>
+      </c>
+      <c r="AA81">
+        <v>77.662999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>87.677999999999997</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>624.61699999999996</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>510.21600000000001</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>509.63799999999998</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2029.81</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>4899.3389999999999</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>57.542000000000002</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>364.22899999999998</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>-5</v>
       </c>
-      <c r="N42">
+      <c r="N82">
         <v>1319.249</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>2497.7489999999998</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>758.73500000000001</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>177.376</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>5901</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>2401.59</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1026.829</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>137.363</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>17.715</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>328.46800000000002</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>26.587</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>87.677999999999997</v>
       </c>
     </row>
